--- a/cyclonesFootball2019.xlsx
+++ b/cyclonesFootball2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xdai/GoogleDrive/Teaching/ISU/DS202 20S/crawl/cyclones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Courses\Fall 2020\DS 202\Labs\Lab 4\ds202_lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5ED2AD-C8F2-B544-884A-72C902531BCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F63D82-BEDB-4328-9897-9AA7F19A458B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defensive" sheetId="1" r:id="rId1"/>
@@ -2254,13 +2254,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K503"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2295,7 +2308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2330,7 +2343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2365,7 +2378,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2400,7 +2413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2435,7 +2448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2470,7 +2483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2505,7 +2518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2540,7 +2553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2575,7 +2588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2610,7 +2623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2645,7 +2658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2680,7 +2693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2715,7 +2728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2750,7 +2763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -2785,7 +2798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2820,7 +2833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2855,7 +2868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2890,7 +2903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2925,7 +2938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2960,7 +2973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2995,7 +3008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -3030,7 +3043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -3065,7 +3078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3100,7 +3113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -3135,7 +3148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3170,7 +3183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3205,7 +3218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3240,7 +3253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3275,7 +3288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3310,7 +3323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -3345,7 +3358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -3380,7 +3393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -3415,7 +3428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -3450,7 +3463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -3485,7 +3498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -3520,7 +3533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -3555,7 +3568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3590,7 +3603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3625,7 +3638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -3660,7 +3673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3695,7 +3708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3730,7 +3743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -3765,7 +3778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -3800,7 +3813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -3835,7 +3848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -3870,7 +3883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -3905,7 +3918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -3940,7 +3953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -3975,7 +3988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -4010,7 +4023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -4045,7 +4058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -4080,7 +4093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -4115,7 +4128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -4150,7 +4163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -4185,7 +4198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -4220,7 +4233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>41</v>
       </c>
@@ -4255,7 +4268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>41</v>
       </c>
@@ -4290,7 +4303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>41</v>
       </c>
@@ -4325,7 +4338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -4360,7 +4373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>41</v>
       </c>
@@ -4395,7 +4408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -4430,7 +4443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -4465,7 +4478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -4500,7 +4513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>43</v>
       </c>
@@ -4535,7 +4548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>43</v>
       </c>
@@ -4570,7 +4583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>43</v>
       </c>
@@ -4605,7 +4618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>43</v>
       </c>
@@ -4640,7 +4653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>43</v>
       </c>
@@ -4675,7 +4688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>43</v>
       </c>
@@ -4710,7 +4723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>43</v>
       </c>
@@ -4745,7 +4758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>43</v>
       </c>
@@ -4780,7 +4793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -4815,7 +4828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>43</v>
       </c>
@@ -4850,7 +4863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>43</v>
       </c>
@@ -4885,7 +4898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>43</v>
       </c>
@@ -4920,7 +4933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>44</v>
       </c>
@@ -4955,7 +4968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -4990,7 +5003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>44</v>
       </c>
@@ -5025,7 +5038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>44</v>
       </c>
@@ -5060,7 +5073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>44</v>
       </c>
@@ -5095,7 +5108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>44</v>
       </c>
@@ -5130,7 +5143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>44</v>
       </c>
@@ -5165,7 +5178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>44</v>
       </c>
@@ -5200,7 +5213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>44</v>
       </c>
@@ -5235,7 +5248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>44</v>
       </c>
@@ -5270,7 +5283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -5305,7 +5318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -5340,7 +5353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>44</v>
       </c>
@@ -5375,7 +5388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>45</v>
       </c>
@@ -5410,7 +5423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>45</v>
       </c>
@@ -5445,7 +5458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>45</v>
       </c>
@@ -5480,7 +5493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>45</v>
       </c>
@@ -5515,7 +5528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>45</v>
       </c>
@@ -5550,7 +5563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>45</v>
       </c>
@@ -5585,7 +5598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>45</v>
       </c>
@@ -5620,7 +5633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>45</v>
       </c>
@@ -5655,7 +5668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>45</v>
       </c>
@@ -5690,7 +5703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>45</v>
       </c>
@@ -5725,7 +5738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>45</v>
       </c>
@@ -5760,7 +5773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>45</v>
       </c>
@@ -5795,7 +5808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>45</v>
       </c>
@@ -5830,7 +5843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>46</v>
       </c>
@@ -5865,7 +5878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>46</v>
       </c>
@@ -5900,7 +5913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>46</v>
       </c>
@@ -5935,7 +5948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>46</v>
       </c>
@@ -5970,7 +5983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>46</v>
       </c>
@@ -6005,7 +6018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>46</v>
       </c>
@@ -6040,7 +6053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>46</v>
       </c>
@@ -6075,7 +6088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>46</v>
       </c>
@@ -6110,7 +6123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>46</v>
       </c>
@@ -6145,7 +6158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>46</v>
       </c>
@@ -6180,7 +6193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>46</v>
       </c>
@@ -6215,7 +6228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>46</v>
       </c>
@@ -6250,7 +6263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>46</v>
       </c>
@@ -6285,7 +6298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>48</v>
       </c>
@@ -6320,7 +6333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>48</v>
       </c>
@@ -6355,7 +6368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>48</v>
       </c>
@@ -6390,7 +6403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>48</v>
       </c>
@@ -6425,7 +6438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>48</v>
       </c>
@@ -6460,7 +6473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>48</v>
       </c>
@@ -6495,7 +6508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>48</v>
       </c>
@@ -6530,7 +6543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>48</v>
       </c>
@@ -6565,7 +6578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>48</v>
       </c>
@@ -6600,7 +6613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>48</v>
       </c>
@@ -6635,7 +6648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>48</v>
       </c>
@@ -6670,7 +6683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>49</v>
       </c>
@@ -6705,7 +6718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>49</v>
       </c>
@@ -6740,7 +6753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>49</v>
       </c>
@@ -6775,7 +6788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>49</v>
       </c>
@@ -6810,7 +6823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>49</v>
       </c>
@@ -6845,7 +6858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>49</v>
       </c>
@@ -6880,7 +6893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>49</v>
       </c>
@@ -6915,7 +6928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>50</v>
       </c>
@@ -6950,7 +6963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>50</v>
       </c>
@@ -6985,7 +6998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>50</v>
       </c>
@@ -7020,7 +7033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>50</v>
       </c>
@@ -7055,7 +7068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>50</v>
       </c>
@@ -7090,7 +7103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>50</v>
       </c>
@@ -7125,7 +7138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>50</v>
       </c>
@@ -7160,7 +7173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>50</v>
       </c>
@@ -7195,7 +7208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>50</v>
       </c>
@@ -7230,7 +7243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>50</v>
       </c>
@@ -7265,7 +7278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>50</v>
       </c>
@@ -7300,7 +7313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>50</v>
       </c>
@@ -7335,7 +7348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>50</v>
       </c>
@@ -7370,7 +7383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>51</v>
       </c>
@@ -7405,7 +7418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>51</v>
       </c>
@@ -7440,7 +7453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>51</v>
       </c>
@@ -7475,7 +7488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>51</v>
       </c>
@@ -7510,7 +7523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>51</v>
       </c>
@@ -7545,7 +7558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>51</v>
       </c>
@@ -7580,7 +7593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>51</v>
       </c>
@@ -7615,7 +7628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>51</v>
       </c>
@@ -7650,7 +7663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>51</v>
       </c>
@@ -7685,7 +7698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>51</v>
       </c>
@@ -7720,7 +7733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>51</v>
       </c>
@@ -7755,7 +7768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>51</v>
       </c>
@@ -7790,7 +7803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>52</v>
       </c>
@@ -7825,7 +7838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>52</v>
       </c>
@@ -7860,7 +7873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>52</v>
       </c>
@@ -7895,7 +7908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>52</v>
       </c>
@@ -7930,7 +7943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>52</v>
       </c>
@@ -7965,7 +7978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>52</v>
       </c>
@@ -8000,7 +8013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>52</v>
       </c>
@@ -8035,7 +8048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>52</v>
       </c>
@@ -8070,7 +8083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>52</v>
       </c>
@@ -8105,7 +8118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>52</v>
       </c>
@@ -8140,7 +8153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>52</v>
       </c>
@@ -8175,7 +8188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>52</v>
       </c>
@@ -8210,7 +8223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>52</v>
       </c>
@@ -8245,7 +8258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>53</v>
       </c>
@@ -8280,7 +8293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>53</v>
       </c>
@@ -8315,7 +8328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>53</v>
       </c>
@@ -8350,7 +8363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>53</v>
       </c>
@@ -8385,7 +8398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>53</v>
       </c>
@@ -8420,7 +8433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>53</v>
       </c>
@@ -8455,7 +8468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>53</v>
       </c>
@@ -8490,7 +8503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>53</v>
       </c>
@@ -8525,7 +8538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>53</v>
       </c>
@@ -8560,7 +8573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>53</v>
       </c>
@@ -8595,7 +8608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>53</v>
       </c>
@@ -8630,7 +8643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>53</v>
       </c>
@@ -8665,7 +8678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>53</v>
       </c>
@@ -8700,7 +8713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>54</v>
       </c>
@@ -8735,7 +8748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>54</v>
       </c>
@@ -8770,7 +8783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>54</v>
       </c>
@@ -8805,7 +8818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>54</v>
       </c>
@@ -8840,7 +8853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>54</v>
       </c>
@@ -8875,7 +8888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>54</v>
       </c>
@@ -8910,7 +8923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>54</v>
       </c>
@@ -8945,7 +8958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>54</v>
       </c>
@@ -8980,7 +8993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>54</v>
       </c>
@@ -9015,7 +9028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>54</v>
       </c>
@@ -9050,7 +9063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>54</v>
       </c>
@@ -9085,7 +9098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>54</v>
       </c>
@@ -9120,7 +9133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>54</v>
       </c>
@@ -9155,7 +9168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>55</v>
       </c>
@@ -9190,7 +9203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>55</v>
       </c>
@@ -9225,7 +9238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>55</v>
       </c>
@@ -9260,7 +9273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>55</v>
       </c>
@@ -9295,7 +9308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>55</v>
       </c>
@@ -9330,7 +9343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>55</v>
       </c>
@@ -9365,7 +9378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>55</v>
       </c>
@@ -9400,7 +9413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>55</v>
       </c>
@@ -9435,7 +9448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>55</v>
       </c>
@@ -9470,7 +9483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>55</v>
       </c>
@@ -9505,7 +9518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>55</v>
       </c>
@@ -9540,7 +9553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>55</v>
       </c>
@@ -9575,7 +9588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>55</v>
       </c>
@@ -9610,7 +9623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>56</v>
       </c>
@@ -9645,7 +9658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>56</v>
       </c>
@@ -9680,7 +9693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>56</v>
       </c>
@@ -9715,7 +9728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>56</v>
       </c>
@@ -9750,7 +9763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>56</v>
       </c>
@@ -9785,7 +9798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>56</v>
       </c>
@@ -9820,7 +9833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>56</v>
       </c>
@@ -9855,7 +9868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>56</v>
       </c>
@@ -9890,7 +9903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>56</v>
       </c>
@@ -9925,7 +9938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>56</v>
       </c>
@@ -9960,7 +9973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>56</v>
       </c>
@@ -9995,7 +10008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>56</v>
       </c>
@@ -10030,7 +10043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>56</v>
       </c>
@@ -10065,7 +10078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>57</v>
       </c>
@@ -10100,7 +10113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>57</v>
       </c>
@@ -10135,7 +10148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>57</v>
       </c>
@@ -10170,7 +10183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>57</v>
       </c>
@@ -10205,7 +10218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>57</v>
       </c>
@@ -10240,7 +10253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>57</v>
       </c>
@@ -10275,7 +10288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>57</v>
       </c>
@@ -10310,7 +10323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>57</v>
       </c>
@@ -10345,7 +10358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>57</v>
       </c>
@@ -10380,7 +10393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>57</v>
       </c>
@@ -10415,7 +10428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>57</v>
       </c>
@@ -10450,7 +10463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>57</v>
       </c>
@@ -10485,7 +10498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>57</v>
       </c>
@@ -10520,7 +10533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>58</v>
       </c>
@@ -10555,7 +10568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>58</v>
       </c>
@@ -10590,7 +10603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>58</v>
       </c>
@@ -10625,7 +10638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>58</v>
       </c>
@@ -10660,7 +10673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>59</v>
       </c>
@@ -10695,7 +10708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>59</v>
       </c>
@@ -10730,7 +10743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>59</v>
       </c>
@@ -10765,7 +10778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>59</v>
       </c>
@@ -10800,7 +10813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>59</v>
       </c>
@@ -10835,7 +10848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>59</v>
       </c>
@@ -10870,7 +10883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>59</v>
       </c>
@@ -10905,7 +10918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>59</v>
       </c>
@@ -10940,7 +10953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>59</v>
       </c>
@@ -10975,7 +10988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>59</v>
       </c>
@@ -11010,7 +11023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>59</v>
       </c>
@@ -11045,7 +11058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>60</v>
       </c>
@@ -11080,7 +11093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>60</v>
       </c>
@@ -11115,7 +11128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>60</v>
       </c>
@@ -11150,7 +11163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>60</v>
       </c>
@@ -11185,7 +11198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>60</v>
       </c>
@@ -11220,7 +11233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>60</v>
       </c>
@@ -11255,7 +11268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>60</v>
       </c>
@@ -11290,7 +11303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>60</v>
       </c>
@@ -11325,7 +11338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>60</v>
       </c>
@@ -11360,7 +11373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>60</v>
       </c>
@@ -11395,7 +11408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>60</v>
       </c>
@@ -11430,7 +11443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>61</v>
       </c>
@@ -11465,7 +11478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>61</v>
       </c>
@@ -11500,7 +11513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>61</v>
       </c>
@@ -11535,7 +11548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>61</v>
       </c>
@@ -11570,7 +11583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>61</v>
       </c>
@@ -11605,7 +11618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>61</v>
       </c>
@@ -11640,7 +11653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>61</v>
       </c>
@@ -11675,7 +11688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>61</v>
       </c>
@@ -11710,7 +11723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>61</v>
       </c>
@@ -11745,7 +11758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>61</v>
       </c>
@@ -11780,7 +11793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>62</v>
       </c>
@@ -11815,7 +11828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>62</v>
       </c>
@@ -11850,7 +11863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>62</v>
       </c>
@@ -11885,7 +11898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>62</v>
       </c>
@@ -11920,7 +11933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>62</v>
       </c>
@@ -11955,7 +11968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>62</v>
       </c>
@@ -11990,7 +12003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>62</v>
       </c>
@@ -12025,7 +12038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>62</v>
       </c>
@@ -12060,7 +12073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>62</v>
       </c>
@@ -12095,7 +12108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>62</v>
       </c>
@@ -12130,7 +12143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>62</v>
       </c>
@@ -12165,7 +12178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>62</v>
       </c>
@@ -12200,7 +12213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>62</v>
       </c>
@@ -12235,7 +12248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>63</v>
       </c>
@@ -12270,7 +12283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>63</v>
       </c>
@@ -12305,7 +12318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>63</v>
       </c>
@@ -12340,7 +12353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>63</v>
       </c>
@@ -12375,7 +12388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>63</v>
       </c>
@@ -12410,7 +12423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>63</v>
       </c>
@@ -12445,7 +12458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>63</v>
       </c>
@@ -12480,7 +12493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>63</v>
       </c>
@@ -12515,7 +12528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>63</v>
       </c>
@@ -12550,7 +12563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>63</v>
       </c>
@@ -12585,7 +12598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>63</v>
       </c>
@@ -12620,7 +12633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>64</v>
       </c>
@@ -12655,7 +12668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>64</v>
       </c>
@@ -12690,7 +12703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>64</v>
       </c>
@@ -12725,7 +12738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>64</v>
       </c>
@@ -12760,7 +12773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>64</v>
       </c>
@@ -12795,7 +12808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>64</v>
       </c>
@@ -12830,7 +12843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>64</v>
       </c>
@@ -12865,7 +12878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>64</v>
       </c>
@@ -12900,7 +12913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>64</v>
       </c>
@@ -12935,7 +12948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>64</v>
       </c>
@@ -12970,7 +12983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>64</v>
       </c>
@@ -13005,7 +13018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>64</v>
       </c>
@@ -13040,7 +13053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>64</v>
       </c>
@@ -13075,7 +13088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>65</v>
       </c>
@@ -13110,7 +13123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>65</v>
       </c>
@@ -13145,7 +13158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>65</v>
       </c>
@@ -13180,7 +13193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>65</v>
       </c>
@@ -13215,7 +13228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>65</v>
       </c>
@@ -13250,7 +13263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>65</v>
       </c>
@@ -13285,7 +13298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>65</v>
       </c>
@@ -13320,7 +13333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>65</v>
       </c>
@@ -13355,7 +13368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>65</v>
       </c>
@@ -13390,7 +13403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>65</v>
       </c>
@@ -13425,7 +13438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>65</v>
       </c>
@@ -13460,7 +13473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>65</v>
       </c>
@@ -13495,7 +13508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>65</v>
       </c>
@@ -13530,7 +13543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>66</v>
       </c>
@@ -13565,7 +13578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>66</v>
       </c>
@@ -13600,7 +13613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>66</v>
       </c>
@@ -13635,7 +13648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>66</v>
       </c>
@@ -13670,7 +13683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>66</v>
       </c>
@@ -13705,7 +13718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>66</v>
       </c>
@@ -13740,7 +13753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>66</v>
       </c>
@@ -13775,7 +13788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>66</v>
       </c>
@@ -13810,7 +13823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>66</v>
       </c>
@@ -13845,7 +13858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>66</v>
       </c>
@@ -13880,7 +13893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>66</v>
       </c>
@@ -13915,7 +13928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>67</v>
       </c>
@@ -13950,7 +13963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>67</v>
       </c>
@@ -13985,7 +13998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>67</v>
       </c>
@@ -14020,7 +14033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>67</v>
       </c>
@@ -14055,7 +14068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>67</v>
       </c>
@@ -14090,7 +14103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>67</v>
       </c>
@@ -14125,7 +14138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>67</v>
       </c>
@@ -14160,7 +14173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>67</v>
       </c>
@@ -14195,7 +14208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>67</v>
       </c>
@@ -14230,7 +14243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>67</v>
       </c>
@@ -14265,7 +14278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>67</v>
       </c>
@@ -14300,7 +14313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>67</v>
       </c>
@@ -14335,7 +14348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>67</v>
       </c>
@@ -14370,7 +14383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>68</v>
       </c>
@@ -14405,7 +14418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>68</v>
       </c>
@@ -14440,7 +14453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>68</v>
       </c>
@@ -14475,7 +14488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>68</v>
       </c>
@@ -14510,7 +14523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>68</v>
       </c>
@@ -14545,7 +14558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>68</v>
       </c>
@@ -14580,7 +14593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>68</v>
       </c>
@@ -14615,7 +14628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>68</v>
       </c>
@@ -14650,7 +14663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>68</v>
       </c>
@@ -14685,7 +14698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>68</v>
       </c>
@@ -14720,7 +14733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>68</v>
       </c>
@@ -14755,7 +14768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>68</v>
       </c>
@@ -14790,7 +14803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>68</v>
       </c>
@@ -14825,7 +14838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>69</v>
       </c>
@@ -14860,7 +14873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>69</v>
       </c>
@@ -14895,7 +14908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>69</v>
       </c>
@@ -14930,7 +14943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>69</v>
       </c>
@@ -14965,7 +14978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>69</v>
       </c>
@@ -15000,7 +15013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>69</v>
       </c>
@@ -15035,7 +15048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>69</v>
       </c>
@@ -15070,7 +15083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>69</v>
       </c>
@@ -15105,7 +15118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>69</v>
       </c>
@@ -15140,7 +15153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>69</v>
       </c>
@@ -15175,7 +15188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>69</v>
       </c>
@@ -15210,7 +15223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>69</v>
       </c>
@@ -15245,7 +15258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>69</v>
       </c>
@@ -15280,7 +15293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>70</v>
       </c>
@@ -15315,7 +15328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>70</v>
       </c>
@@ -15350,7 +15363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>70</v>
       </c>
@@ -15385,7 +15398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>70</v>
       </c>
@@ -15420,7 +15433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>70</v>
       </c>
@@ -15455,7 +15468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>70</v>
       </c>
@@ -15490,7 +15503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>70</v>
       </c>
@@ -15525,7 +15538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>70</v>
       </c>
@@ -15560,7 +15573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>70</v>
       </c>
@@ -15595,7 +15608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>70</v>
       </c>
@@ -15630,7 +15643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>70</v>
       </c>
@@ -15665,7 +15678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>70</v>
       </c>
@@ -15700,7 +15713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>71</v>
       </c>
@@ -15735,7 +15748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>71</v>
       </c>
@@ -15770,7 +15783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>71</v>
       </c>
@@ -15805,7 +15818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>71</v>
       </c>
@@ -15840,7 +15853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>71</v>
       </c>
@@ -15875,7 +15888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>71</v>
       </c>
@@ -15910,7 +15923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>71</v>
       </c>
@@ -15945,7 +15958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>71</v>
       </c>
@@ -15980,7 +15993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>71</v>
       </c>
@@ -16015,7 +16028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>71</v>
       </c>
@@ -16050,7 +16063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>71</v>
       </c>
@@ -16085,7 +16098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>71</v>
       </c>
@@ -16120,7 +16133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>71</v>
       </c>
@@ -16155,7 +16168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>72</v>
       </c>
@@ -16190,7 +16203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>72</v>
       </c>
@@ -16225,7 +16238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>72</v>
       </c>
@@ -16260,7 +16273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>72</v>
       </c>
@@ -16295,7 +16308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>72</v>
       </c>
@@ -16330,7 +16343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>72</v>
       </c>
@@ -16365,7 +16378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>72</v>
       </c>
@@ -16400,7 +16413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>72</v>
       </c>
@@ -16435,7 +16448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>72</v>
       </c>
@@ -16470,7 +16483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>73</v>
       </c>
@@ -16505,7 +16518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>73</v>
       </c>
@@ -16540,7 +16553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>73</v>
       </c>
@@ -16575,7 +16588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>73</v>
       </c>
@@ -16610,7 +16623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>73</v>
       </c>
@@ -16645,7 +16658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>73</v>
       </c>
@@ -16680,7 +16693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>73</v>
       </c>
@@ -16715,7 +16728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>73</v>
       </c>
@@ -16750,7 +16763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>73</v>
       </c>
@@ -16785,7 +16798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>73</v>
       </c>
@@ -16820,7 +16833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>73</v>
       </c>
@@ -16855,7 +16868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>73</v>
       </c>
@@ -16890,7 +16903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>73</v>
       </c>
@@ -16925,7 +16938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>74</v>
       </c>
@@ -16960,7 +16973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>74</v>
       </c>
@@ -16995,7 +17008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>74</v>
       </c>
@@ -17030,7 +17043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>74</v>
       </c>
@@ -17065,7 +17078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>74</v>
       </c>
@@ -17100,7 +17113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>74</v>
       </c>
@@ -17135,7 +17148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>74</v>
       </c>
@@ -17170,7 +17183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>74</v>
       </c>
@@ -17205,7 +17218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>74</v>
       </c>
@@ -17240,7 +17253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>74</v>
       </c>
@@ -17275,7 +17288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>74</v>
       </c>
@@ -17310,7 +17323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>74</v>
       </c>
@@ -17345,7 +17358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>74</v>
       </c>
@@ -17380,7 +17393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>75</v>
       </c>
@@ -17415,7 +17428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>75</v>
       </c>
@@ -17450,7 +17463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>75</v>
       </c>
@@ -17485,7 +17498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>75</v>
       </c>
@@ -17520,7 +17533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>75</v>
       </c>
@@ -17555,7 +17568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>75</v>
       </c>
@@ -17590,7 +17603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>75</v>
       </c>
@@ -17625,7 +17638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>75</v>
       </c>
@@ -17660,7 +17673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>75</v>
       </c>
@@ -17695,7 +17708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>75</v>
       </c>
@@ -17730,7 +17743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>75</v>
       </c>
@@ -17765,7 +17778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>75</v>
       </c>
@@ -17800,7 +17813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>75</v>
       </c>
@@ -17835,7 +17848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>76</v>
       </c>
@@ -17870,7 +17883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>76</v>
       </c>
@@ -17905,7 +17918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>76</v>
       </c>
@@ -17940,7 +17953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>76</v>
       </c>
@@ -17975,7 +17988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>76</v>
       </c>
@@ -18010,7 +18023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>76</v>
       </c>
@@ -18045,7 +18058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>76</v>
       </c>
@@ -18080,7 +18093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>76</v>
       </c>
@@ -18115,7 +18128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>76</v>
       </c>
@@ -18150,7 +18163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>76</v>
       </c>
@@ -18185,7 +18198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>76</v>
       </c>
@@ -18220,7 +18233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>76</v>
       </c>
@@ -18255,7 +18268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>76</v>
       </c>
@@ -18290,7 +18303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>77</v>
       </c>
@@ -18325,7 +18338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>77</v>
       </c>
@@ -18360,7 +18373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>77</v>
       </c>
@@ -18395,7 +18408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>77</v>
       </c>
@@ -18430,7 +18443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>77</v>
       </c>
@@ -18465,7 +18478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>77</v>
       </c>
@@ -18500,7 +18513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>78</v>
       </c>
@@ -18535,7 +18548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>78</v>
       </c>
@@ -18570,7 +18583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>78</v>
       </c>
@@ -18605,7 +18618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>78</v>
       </c>
@@ -18640,7 +18653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>78</v>
       </c>
@@ -18675,7 +18688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>78</v>
       </c>
@@ -18710,7 +18723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>78</v>
       </c>
@@ -18745,7 +18758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>78</v>
       </c>
@@ -18780,7 +18793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>78</v>
       </c>
@@ -18815,7 +18828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>78</v>
       </c>
@@ -18850,7 +18863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>78</v>
       </c>
@@ -18885,7 +18898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>78</v>
       </c>
@@ -18920,7 +18933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>79</v>
       </c>
@@ -18955,7 +18968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>79</v>
       </c>
@@ -18990,7 +19003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>79</v>
       </c>
@@ -19025,7 +19038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>80</v>
       </c>
@@ -19060,7 +19073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>80</v>
       </c>
@@ -19095,7 +19108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>80</v>
       </c>
@@ -19130,7 +19143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>80</v>
       </c>
@@ -19165,7 +19178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>80</v>
       </c>
@@ -19200,7 +19213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>80</v>
       </c>
@@ -19235,7 +19248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>80</v>
       </c>
@@ -19270,7 +19283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>80</v>
       </c>
@@ -19305,7 +19318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>80</v>
       </c>
@@ -19340,7 +19353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>80</v>
       </c>
@@ -19375,7 +19388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>80</v>
       </c>
@@ -19410,7 +19423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>80</v>
       </c>
@@ -19445,7 +19458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>80</v>
       </c>
@@ -19480,7 +19493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>81</v>
       </c>
@@ -19515,7 +19528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>81</v>
       </c>
@@ -19550,7 +19563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>81</v>
       </c>
@@ -19585,7 +19598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>81</v>
       </c>
@@ -19620,7 +19633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>81</v>
       </c>
@@ -19655,7 +19668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>81</v>
       </c>
@@ -19690,7 +19703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>81</v>
       </c>
@@ -19725,7 +19738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>81</v>
       </c>
@@ -19760,7 +19773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>81</v>
       </c>
@@ -19795,7 +19808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>81</v>
       </c>
@@ -19830,7 +19843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>81</v>
       </c>
@@ -19876,12 +19889,25 @@
   <dimension ref="A1:L196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19919,7 +19945,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -19945,7 +19971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -19971,7 +19997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -19997,7 +20023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -20023,7 +20049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -20049,7 +20075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -20075,7 +20101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -20101,7 +20127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -20127,7 +20153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -20153,7 +20179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -20179,7 +20205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -20205,7 +20231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -20231,7 +20257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -20257,7 +20283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -20274,7 +20300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -20291,7 +20317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -20308,7 +20334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -20325,7 +20351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -20342,7 +20368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -20359,7 +20385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -20376,7 +20402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -20393,7 +20419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -20410,7 +20436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -20427,7 +20453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -20444,7 +20470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -20461,7 +20487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -20478,7 +20504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -20495,7 +20521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -20512,7 +20538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -20529,7 +20555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -20546,7 +20572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -20563,7 +20589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -20580,7 +20606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -20597,7 +20623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -20614,7 +20640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -20631,7 +20657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -20648,7 +20674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -20665,7 +20691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -20682,7 +20708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -20699,7 +20725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -20716,7 +20742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -20733,7 +20759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -20750,7 +20776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -20767,7 +20793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -20784,7 +20810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -20801,7 +20827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -20818,7 +20844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -20835,7 +20861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -20852,7 +20878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -20869,7 +20895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>73</v>
       </c>
@@ -20886,7 +20912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -20903,7 +20929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -20920,7 +20946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -20937,7 +20963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>75</v>
       </c>
@@ -20954,7 +20980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -20971,7 +20997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -20988,7 +21014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -21005,7 +21031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -21022,7 +21048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -21039,7 +21065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -21056,7 +21082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -21073,7 +21099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -21090,7 +21116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -21107,7 +21133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -21124,7 +21150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -21141,7 +21167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -21158,7 +21184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -21175,7 +21201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -21192,7 +21218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -21209,7 +21235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -21226,7 +21252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -21243,7 +21269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -21260,7 +21286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -21277,7 +21303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -21294,7 +21320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -21311,7 +21337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -21328,7 +21354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -21345,7 +21371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -21371,7 +21397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -21397,7 +21423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -21423,7 +21449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -21449,7 +21475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -21475,7 +21501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -21501,7 +21527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>78</v>
       </c>
@@ -21527,7 +21553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>78</v>
       </c>
@@ -21553,7 +21579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>78</v>
       </c>
@@ -21579,7 +21605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>78</v>
       </c>
@@ -21605,7 +21631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>78</v>
       </c>
@@ -21631,7 +21657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>78</v>
       </c>
@@ -21657,7 +21683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>81</v>
       </c>
@@ -21674,7 +21700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>81</v>
       </c>
@@ -21691,7 +21717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>81</v>
       </c>
@@ -21708,7 +21734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>81</v>
       </c>
@@ -21725,7 +21751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>81</v>
       </c>
@@ -21742,7 +21768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>81</v>
       </c>
@@ -21759,7 +21785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>81</v>
       </c>
@@ -21776,7 +21802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>81</v>
       </c>
@@ -21793,7 +21819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>81</v>
       </c>
@@ -21810,7 +21836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>81</v>
       </c>
@@ -21827,7 +21853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>81</v>
       </c>
@@ -21844,7 +21870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>144</v>
       </c>
@@ -21873,7 +21899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>144</v>
       </c>
@@ -21902,7 +21928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>144</v>
       </c>
@@ -21931,7 +21957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>144</v>
       </c>
@@ -21960,7 +21986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>144</v>
       </c>
@@ -21989,7 +22015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>144</v>
       </c>
@@ -22018,7 +22044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>144</v>
       </c>
@@ -22047,7 +22073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>144</v>
       </c>
@@ -22076,7 +22102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>144</v>
       </c>
@@ -22105,7 +22131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>144</v>
       </c>
@@ -22134,7 +22160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>144</v>
       </c>
@@ -22163,7 +22189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>144</v>
       </c>
@@ -22192,7 +22218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>144</v>
       </c>
@@ -22221,7 +22247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>176</v>
       </c>
@@ -22247,7 +22273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>176</v>
       </c>
@@ -22273,7 +22299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>176</v>
       </c>
@@ -22299,7 +22325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>176</v>
       </c>
@@ -22325,7 +22351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>176</v>
       </c>
@@ -22351,7 +22377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>176</v>
       </c>
@@ -22377,7 +22403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>176</v>
       </c>
@@ -22403,7 +22429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>176</v>
       </c>
@@ -22429,7 +22455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>176</v>
       </c>
@@ -22455,7 +22481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>176</v>
       </c>
@@ -22481,7 +22507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>176</v>
       </c>
@@ -22507,7 +22533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>176</v>
       </c>
@@ -22533,7 +22559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>178</v>
       </c>
@@ -22559,7 +22585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>178</v>
       </c>
@@ -22585,7 +22611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>178</v>
       </c>
@@ -22611,7 +22637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>178</v>
       </c>
@@ -22637,7 +22663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>178</v>
       </c>
@@ -22663,7 +22689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>178</v>
       </c>
@@ -22689,7 +22715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>178</v>
       </c>
@@ -22715,7 +22741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>178</v>
       </c>
@@ -22741,7 +22767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>178</v>
       </c>
@@ -22767,7 +22793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>178</v>
       </c>
@@ -22793,7 +22819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>178</v>
       </c>
@@ -22819,7 +22845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>178</v>
       </c>
@@ -22845,7 +22871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>178</v>
       </c>
@@ -22871,7 +22897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>181</v>
       </c>
@@ -22909,7 +22935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>181</v>
       </c>
@@ -22947,7 +22973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>181</v>
       </c>
@@ -22985,7 +23011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>181</v>
       </c>
@@ -23023,7 +23049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>181</v>
       </c>
@@ -23061,7 +23087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>185</v>
       </c>
@@ -23087,7 +23113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>185</v>
       </c>
@@ -23113,7 +23139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>185</v>
       </c>
@@ -23139,7 +23165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>185</v>
       </c>
@@ -23165,7 +23191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>185</v>
       </c>
@@ -23191,7 +23217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>185</v>
       </c>
@@ -23217,7 +23243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>185</v>
       </c>
@@ -23243,7 +23269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>185</v>
       </c>
@@ -23269,7 +23295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>185</v>
       </c>
@@ -23295,7 +23321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>185</v>
       </c>
@@ -23321,7 +23347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>185</v>
       </c>
@@ -23347,7 +23373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>185</v>
       </c>
@@ -23373,7 +23399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>188</v>
       </c>
@@ -23390,7 +23416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>188</v>
       </c>
@@ -23407,7 +23433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>188</v>
       </c>
@@ -23424,7 +23450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>188</v>
       </c>
@@ -23441,7 +23467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>189</v>
       </c>
@@ -23479,7 +23505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>189</v>
       </c>
@@ -23517,7 +23543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>189</v>
       </c>
@@ -23555,7 +23581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>189</v>
       </c>
@@ -23593,7 +23619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>189</v>
       </c>
@@ -23631,7 +23657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>189</v>
       </c>
@@ -23669,7 +23695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>189</v>
       </c>
@@ -23707,7 +23733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>189</v>
       </c>
@@ -23745,7 +23771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>189</v>
       </c>
@@ -23783,7 +23809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>189</v>
       </c>
@@ -23821,7 +23847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>189</v>
       </c>
@@ -23859,7 +23885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>189</v>
       </c>
@@ -23897,7 +23923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>189</v>
       </c>
@@ -23935,7 +23961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>198</v>
       </c>
@@ -23952,7 +23978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>198</v>
       </c>
@@ -23969,7 +23995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>198</v>
       </c>
@@ -23986,7 +24012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>198</v>
       </c>
@@ -24003,7 +24029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>198</v>
       </c>
@@ -24020,7 +24046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>198</v>
       </c>
@@ -24037,7 +24063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>198</v>
       </c>
@@ -24054,7 +24080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>198</v>
       </c>
@@ -24071,7 +24097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>198</v>
       </c>
@@ -24088,7 +24114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>198</v>
       </c>
@@ -24105,7 +24131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>198</v>
       </c>
@@ -24122,7 +24148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>198</v>
       </c>
@@ -24139,7 +24165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>198</v>
       </c>
@@ -24156,7 +24182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>204</v>
       </c>
@@ -24173,7 +24199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -24190,7 +24216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>204</v>
       </c>
@@ -24207,7 +24233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>204</v>
       </c>
@@ -24224,7 +24250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>204</v>
       </c>
@@ -24241,7 +24267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>204</v>
       </c>
@@ -24258,7 +24284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>204</v>
       </c>
@@ -24275,7 +24301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>204</v>
       </c>
@@ -24292,7 +24318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>204</v>
       </c>
@@ -24309,7 +24335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>204</v>
       </c>
@@ -24336,11 +24362,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="A1:J102"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24372,7 +24409,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -24404,7 +24441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -24436,7 +24473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -24468,7 +24505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -24500,7 +24537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -24532,7 +24569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -24564,7 +24601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -24596,7 +24633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -24628,7 +24665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -24660,7 +24697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -24692,7 +24729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -24724,7 +24761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -24756,7 +24793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -24788,7 +24825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -24820,7 +24857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -24852,7 +24889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -24884,7 +24921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -24916,7 +24953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -24948,7 +24985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -24980,7 +25017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -25012,7 +25049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -25044,7 +25081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -25076,7 +25113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -25108,7 +25145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -25140,7 +25177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -25172,7 +25209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -25204,7 +25241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -25236,7 +25273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -25268,7 +25305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -25300,7 +25337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -25332,7 +25369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -25364,7 +25401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -25396,7 +25433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -25428,7 +25465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -25460,7 +25497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -25492,7 +25529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -25524,7 +25561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -25556,7 +25593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -25588,7 +25625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>176</v>
       </c>
@@ -25620,7 +25657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>176</v>
       </c>
@@ -25652,7 +25689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>176</v>
       </c>
@@ -25684,7 +25721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>176</v>
       </c>
@@ -25716,7 +25753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -25748,7 +25785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>176</v>
       </c>
@@ -25780,7 +25817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>176</v>
       </c>
@@ -25812,7 +25849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>176</v>
       </c>
@@ -25844,7 +25881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>176</v>
       </c>
@@ -25876,7 +25913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>176</v>
       </c>
@@ -25908,7 +25945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -25940,7 +25977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>176</v>
       </c>
@@ -25972,7 +26009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>178</v>
       </c>
@@ -26004,7 +26041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>178</v>
       </c>
@@ -26036,7 +26073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>178</v>
       </c>
@@ -26068,7 +26105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>178</v>
       </c>
@@ -26100,7 +26137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>178</v>
       </c>
@@ -26132,7 +26169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>178</v>
       </c>
@@ -26164,7 +26201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>178</v>
       </c>
@@ -26196,7 +26233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -26228,7 +26265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>178</v>
       </c>
@@ -26260,7 +26297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>178</v>
       </c>
@@ -26292,7 +26329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>178</v>
       </c>
@@ -26324,7 +26361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>178</v>
       </c>
@@ -26356,7 +26393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>178</v>
       </c>
@@ -26388,7 +26425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>185</v>
       </c>
@@ -26420,7 +26457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>185</v>
       </c>
@@ -26452,7 +26489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>185</v>
       </c>
@@ -26484,7 +26521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>185</v>
       </c>
@@ -26516,7 +26553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>185</v>
       </c>
@@ -26548,7 +26585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>185</v>
       </c>
@@ -26580,7 +26617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>185</v>
       </c>
@@ -26612,7 +26649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>185</v>
       </c>
@@ -26644,7 +26681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>185</v>
       </c>
@@ -26676,7 +26713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>185</v>
       </c>
@@ -26708,7 +26745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>185</v>
       </c>
@@ -26740,7 +26777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>185</v>
       </c>
@@ -26772,7 +26809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>189</v>
       </c>
@@ -26804,7 +26841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>189</v>
       </c>
@@ -26836,7 +26873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>189</v>
       </c>
@@ -26868,7 +26905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>189</v>
       </c>
@@ -26900,7 +26937,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>189</v>
       </c>
@@ -26932,7 +26969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>189</v>
       </c>
@@ -26964,7 +27001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>189</v>
       </c>
@@ -26996,7 +27033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>189</v>
       </c>
@@ -27028,7 +27065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>189</v>
       </c>
@@ -27060,7 +27097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>189</v>
       </c>
@@ -27092,7 +27129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>189</v>
       </c>
@@ -27124,7 +27161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>189</v>
       </c>
@@ -27156,7 +27193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>189</v>
       </c>
@@ -27188,7 +27225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>198</v>
       </c>
@@ -27220,7 +27257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>198</v>
       </c>
@@ -27252,7 +27289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>198</v>
       </c>
@@ -27284,7 +27321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>198</v>
       </c>
@@ -27316,7 +27353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>198</v>
       </c>
@@ -27348,7 +27385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>198</v>
       </c>
@@ -27380,7 +27417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>198</v>
       </c>
@@ -27412,7 +27449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>198</v>
       </c>
@@ -27444,7 +27481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>198</v>
       </c>
@@ -27476,7 +27513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>198</v>
       </c>
@@ -27508,7 +27545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>198</v>
       </c>
@@ -27540,7 +27577,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>198</v>
       </c>
@@ -27572,7 +27609,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>198</v>
       </c>
@@ -27614,11 +27651,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27635,7 +27680,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -27652,7 +27697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -27669,7 +27714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -27686,7 +27731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -27703,7 +27748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -27720,7 +27765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -27737,7 +27782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -27754,7 +27799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -27771,7 +27816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -27788,7 +27833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -27805,7 +27850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -27822,7 +27867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -27839,7 +27884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -27867,12 +27912,21 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27895,7 +27949,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -27918,7 +27972,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -27941,7 +27995,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>249</v>
       </c>
@@ -27964,7 +28018,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>255</v>
       </c>
@@ -27987,7 +28041,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -28010,7 +28064,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>264</v>
       </c>
@@ -28033,7 +28087,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -28056,7 +28110,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>274</v>
       </c>
@@ -28079,7 +28133,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>277</v>
       </c>
@@ -28102,7 +28156,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>282</v>
       </c>
@@ -28125,7 +28179,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>289</v>
       </c>
@@ -28148,7 +28202,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>188</v>
       </c>
@@ -28171,7 +28225,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>299</v>
       </c>
@@ -28194,7 +28248,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>303</v>
       </c>
@@ -28217,7 +28271,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>306</v>
       </c>
@@ -28240,7 +28294,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>311</v>
       </c>
@@ -28263,7 +28317,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>315</v>
       </c>
@@ -28286,7 +28340,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>318</v>
       </c>
@@ -28309,7 +28363,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>323</v>
       </c>
@@ -28332,7 +28386,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -28355,7 +28409,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>330</v>
       </c>
@@ -28378,7 +28432,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>333</v>
       </c>
@@ -28401,7 +28455,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>338</v>
       </c>
@@ -28424,7 +28478,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -28447,7 +28501,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>344</v>
       </c>
@@ -28470,7 +28524,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>348</v>
       </c>
@@ -28493,7 +28547,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>353</v>
       </c>
@@ -28516,7 +28570,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>358</v>
       </c>
@@ -28539,7 +28593,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -28562,7 +28616,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>365</v>
       </c>
@@ -28585,7 +28639,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>368</v>
       </c>
@@ -28608,7 +28662,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -28631,7 +28685,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>375</v>
       </c>
@@ -28654,7 +28708,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>379</v>
       </c>
@@ -28677,7 +28731,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>381</v>
       </c>
@@ -28700,7 +28754,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>385</v>
       </c>
@@ -28723,7 +28777,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -28746,7 +28800,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>391</v>
       </c>
@@ -28769,7 +28823,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>392</v>
       </c>
@@ -28792,7 +28846,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>395</v>
       </c>
@@ -28815,7 +28869,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>398</v>
       </c>
@@ -28838,7 +28892,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -28861,7 +28915,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -28884,7 +28938,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>407</v>
       </c>
@@ -28907,7 +28961,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>410</v>
       </c>
@@ -28930,7 +28984,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>414</v>
       </c>
@@ -28953,7 +29007,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -28976,7 +29030,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>421</v>
       </c>
@@ -28999,7 +29053,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>75</v>
       </c>
@@ -29022,7 +29076,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>427</v>
       </c>
@@ -29045,7 +29099,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -29068,7 +29122,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>176</v>
       </c>
@@ -29091,7 +29145,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>436</v>
       </c>
@@ -29114,7 +29168,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>440</v>
       </c>
@@ -29137,7 +29191,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>443</v>
       </c>
@@ -29160,7 +29214,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>447</v>
       </c>
@@ -29183,7 +29237,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>450</v>
       </c>
@@ -29206,7 +29260,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -29229,7 +29283,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -29252,7 +29306,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>458</v>
       </c>
@@ -29275,7 +29329,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>198</v>
       </c>
@@ -29298,7 +29352,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>463</v>
       </c>
@@ -29321,7 +29375,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>467</v>
       </c>
@@ -29344,7 +29398,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>471</v>
       </c>
@@ -29367,7 +29421,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>475</v>
       </c>
@@ -29390,7 +29444,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>178</v>
       </c>
@@ -29413,7 +29467,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>481</v>
       </c>
@@ -29436,7 +29490,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>484</v>
       </c>
@@ -29459,7 +29513,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>487</v>
       </c>
@@ -29482,7 +29536,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -29505,7 +29559,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>494</v>
       </c>
@@ -29528,7 +29582,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>497</v>
       </c>
@@ -29551,7 +29605,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>499</v>
       </c>
@@ -29574,7 +29628,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>68</v>
       </c>
@@ -29597,7 +29651,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>144</v>
       </c>
@@ -29620,7 +29674,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>506</v>
       </c>
@@ -29643,7 +29697,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>509</v>
       </c>
@@ -29666,7 +29720,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>512</v>
       </c>
@@ -29689,7 +29743,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>515</v>
       </c>
@@ -29712,7 +29766,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>61</v>
       </c>
@@ -29735,7 +29789,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>520</v>
       </c>
@@ -29758,7 +29812,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>34</v>
       </c>
@@ -29781,7 +29835,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>526</v>
       </c>
@@ -29804,7 +29858,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -29827,7 +29881,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>204</v>
       </c>
@@ -29850,7 +29904,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>533</v>
       </c>
@@ -29873,7 +29927,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>537</v>
       </c>
@@ -29896,7 +29950,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>81</v>
       </c>
@@ -29919,7 +29973,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>543</v>
       </c>
@@ -29942,7 +29996,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>546</v>
       </c>
@@ -29965,7 +30019,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>550</v>
       </c>
@@ -29988,7 +30042,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>70</v>
       </c>
@@ -30011,7 +30065,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>556</v>
       </c>
@@ -30034,7 +30088,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>559</v>
       </c>
@@ -30057,7 +30111,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>563</v>
       </c>
@@ -30080,7 +30134,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>567</v>
       </c>
@@ -30103,7 +30157,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>46</v>
       </c>
@@ -30126,7 +30180,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -30149,7 +30203,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>67</v>
       </c>
@@ -30172,7 +30226,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -30195,7 +30249,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -30218,7 +30272,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>73</v>
       </c>
@@ -30241,7 +30295,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>579</v>
       </c>
@@ -30264,7 +30318,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>53</v>
       </c>
@@ -30287,7 +30341,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>584</v>
       </c>
@@ -30320,13 +30374,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734B2C7F-A8FE-B94F-BDB1-5BB7F39C03AB}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>587</v>
       </c>
@@ -30334,7 +30392,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>589</v>
       </c>
@@ -30342,7 +30400,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>591</v>
       </c>
@@ -30350,7 +30408,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>593</v>
       </c>
@@ -30358,7 +30416,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>595</v>
       </c>
@@ -30366,12 +30424,12 @@
         <v>596</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>598</v>
       </c>
@@ -30379,7 +30437,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>600</v>
       </c>
@@ -30387,7 +30445,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>602</v>
       </c>
@@ -30395,7 +30453,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>604</v>
       </c>
@@ -30403,7 +30461,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>606</v>
       </c>
@@ -30411,7 +30469,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>608</v>
       </c>
@@ -30419,7 +30477,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>610</v>
       </c>
@@ -30427,7 +30485,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>612</v>
       </c>
@@ -30435,7 +30493,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>614</v>
       </c>
@@ -30443,7 +30501,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>616</v>
       </c>
@@ -30451,7 +30509,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>618</v>
       </c>
@@ -30459,7 +30517,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>620</v>
       </c>
@@ -30467,7 +30525,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>622</v>
       </c>
@@ -30475,7 +30533,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>624</v>
       </c>
